--- a/Упражнения/40.choke.xlsx
+++ b/Упражнения/40.choke.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\Упражнения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B483DD3-59BA-47B3-A3FB-2EDB2CB62DCA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B578A44-6E1E-4027-ABA1-A0426A57249D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59980,7 +59980,7 @@
   <dimension ref="A2:O122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
